--- a/Geldbasierte Strategien des Turniers/Erggebnisse3.xlsx
+++ b/Geldbasierte Strategien des Turniers/Erggebnisse3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonschweizer/Maturaarbeit/Strategie 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57272AC1-EC55-4748-889B-DD47F887634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE193B5C-E5E3-B04F-971E-FA4BEF447BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A4:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1121,6 +1121,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E12:U18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="6">
